--- a/Moving temporal window - HESS/ressources/figures/plots_CRPSS.xlsx
+++ b/Moving temporal window - HESS/ressources/figures/plots_CRPSS.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="12495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="12495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Ulrichen</t>
   </si>
@@ -589,7 +591,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -658,7 +659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1212,7 +1212,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1281,6 +1280,1843 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61-08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5373-4EEE-9E58-A62DD661EA2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5373-4EEE-9E58-A62DD661EA2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5373-4EEE-9E58-A62DD661EA2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW-r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5373-4EEE-9E58-A62DD661EA2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="120"/>
+        <c:axId val="379623680"/>
+        <c:axId val="276528464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379623680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276528464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276528464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CRPSS (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379623680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61-08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C516-4D91-94E9-F8A51D3FE121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.950000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C516-4D91-94E9-F8A51D3FE121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C516-4D91-94E9-F8A51D3FE121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW-r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C516-4D91-94E9-F8A51D3FE121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="120"/>
+        <c:axId val="379623680"/>
+        <c:axId val="276528464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379623680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276528464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276528464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CRPSS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379623680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61-08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2415-4B8B-B274-70B91ACE5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2415-4B8B-B274-70B91ACE5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2415-4B8B-B274-70B91ACE5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW-r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2415-4B8B-B274-70B91ACE5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="120"/>
+        <c:axId val="379623680"/>
+        <c:axId val="276528464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379623680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276528464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276528464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CRPSS (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379623680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1295,7 +3131,635 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61-08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28A1-4128-BA62-8D44FFF8E014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.950000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28A1-4128-BA62-8D44FFF8E014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28A1-4128-BA62-8D44FFF8E014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTW-r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ulrichen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zermatt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Visp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sion</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aigle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-28A1-4128-BA62-8D44FFF8E014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="120"/>
+        <c:axId val="379623680"/>
+        <c:axId val="276528464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379623680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276528464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276528464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CRPSS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379623680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1425,6 +3889,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1929,6 +4553,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2475,6 +7111,144 @@
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2763,8 +7537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,4 +7755,452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>30.73</v>
+      </c>
+      <c r="D3">
+        <v>29.37</v>
+      </c>
+      <c r="E3">
+        <v>31.12</v>
+      </c>
+      <c r="F3">
+        <v>31.58</v>
+      </c>
+      <c r="L3">
+        <v>34.31</v>
+      </c>
+      <c r="M3">
+        <v>33.24</v>
+      </c>
+      <c r="N3">
+        <v>35.44</v>
+      </c>
+      <c r="O3">
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>23.87</v>
+      </c>
+      <c r="D4">
+        <v>22.2</v>
+      </c>
+      <c r="E4">
+        <v>24.34</v>
+      </c>
+      <c r="F4">
+        <v>24.71</v>
+      </c>
+      <c r="L4">
+        <v>28.28</v>
+      </c>
+      <c r="M4">
+        <v>26.95</v>
+      </c>
+      <c r="N4">
+        <v>28.92</v>
+      </c>
+      <c r="O4">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>25.11</v>
+      </c>
+      <c r="D5">
+        <v>23.23</v>
+      </c>
+      <c r="E5">
+        <v>24.39</v>
+      </c>
+      <c r="F5">
+        <v>25.08</v>
+      </c>
+      <c r="L5">
+        <v>28.85</v>
+      </c>
+      <c r="M5">
+        <v>27.77</v>
+      </c>
+      <c r="N5">
+        <v>29.42</v>
+      </c>
+      <c r="O5">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="D6">
+        <v>30.79</v>
+      </c>
+      <c r="E6">
+        <v>31.59</v>
+      </c>
+      <c r="F6">
+        <v>32.22</v>
+      </c>
+      <c r="L6">
+        <v>36.11</v>
+      </c>
+      <c r="M6">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="N6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="O6">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>26.23</v>
+      </c>
+      <c r="D7">
+        <v>24.78</v>
+      </c>
+      <c r="E7">
+        <v>25.35</v>
+      </c>
+      <c r="F7">
+        <v>26.07</v>
+      </c>
+      <c r="L7">
+        <v>31.16</v>
+      </c>
+      <c r="M7">
+        <v>29.36</v>
+      </c>
+      <c r="N7">
+        <v>31.07</v>
+      </c>
+      <c r="O7">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>30.59</v>
+      </c>
+      <c r="D8">
+        <v>30.57</v>
+      </c>
+      <c r="E8">
+        <v>31.78</v>
+      </c>
+      <c r="F8">
+        <v>32.21</v>
+      </c>
+      <c r="L8">
+        <v>35.82</v>
+      </c>
+      <c r="M8">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="N8">
+        <v>38.11</v>
+      </c>
+      <c r="O8">
+        <v>38.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>30.73</v>
+      </c>
+      <c r="D3">
+        <v>29.37</v>
+      </c>
+      <c r="E3">
+        <v>31.12</v>
+      </c>
+      <c r="F3">
+        <v>31.58</v>
+      </c>
+      <c r="L3">
+        <v>34.31</v>
+      </c>
+      <c r="M3">
+        <v>33.24</v>
+      </c>
+      <c r="N3">
+        <v>35.44</v>
+      </c>
+      <c r="O3">
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>23.87</v>
+      </c>
+      <c r="D4">
+        <v>22.2</v>
+      </c>
+      <c r="E4">
+        <v>24.34</v>
+      </c>
+      <c r="F4">
+        <v>24.71</v>
+      </c>
+      <c r="L4">
+        <v>28.28</v>
+      </c>
+      <c r="M4">
+        <v>26.95</v>
+      </c>
+      <c r="N4">
+        <v>28.92</v>
+      </c>
+      <c r="O4">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>25.11</v>
+      </c>
+      <c r="D5">
+        <v>23.23</v>
+      </c>
+      <c r="E5">
+        <v>24.39</v>
+      </c>
+      <c r="F5">
+        <v>25.08</v>
+      </c>
+      <c r="L5">
+        <v>28.85</v>
+      </c>
+      <c r="M5">
+        <v>27.77</v>
+      </c>
+      <c r="N5">
+        <v>29.42</v>
+      </c>
+      <c r="O5">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="D6">
+        <v>30.79</v>
+      </c>
+      <c r="E6">
+        <v>31.59</v>
+      </c>
+      <c r="F6">
+        <v>32.22</v>
+      </c>
+      <c r="L6">
+        <v>36.11</v>
+      </c>
+      <c r="M6">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="N6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="O6">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>26.23</v>
+      </c>
+      <c r="D7">
+        <v>24.78</v>
+      </c>
+      <c r="E7">
+        <v>25.35</v>
+      </c>
+      <c r="F7">
+        <v>26.07</v>
+      </c>
+      <c r="L7">
+        <v>31.16</v>
+      </c>
+      <c r="M7">
+        <v>29.36</v>
+      </c>
+      <c r="N7">
+        <v>31.07</v>
+      </c>
+      <c r="O7">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>30.59</v>
+      </c>
+      <c r="D8">
+        <v>30.57</v>
+      </c>
+      <c r="E8">
+        <v>31.78</v>
+      </c>
+      <c r="F8">
+        <v>32.21</v>
+      </c>
+      <c r="L8">
+        <v>35.82</v>
+      </c>
+      <c r="M8">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="N8">
+        <v>38.11</v>
+      </c>
+      <c r="O8">
+        <v>38.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>